--- a/data/532/HKMA/Currency in circulation.xlsx
+++ b/data/532/HKMA/Currency in circulation.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F639"/>
+  <dimension ref="A1:F640"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14434,6 +14434,28 @@
         <v>601142.279</v>
       </c>
     </row>
+    <row r="640">
+      <c r="A640" s="1" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="B640" t="n">
+        <v>609815</v>
+      </c>
+      <c r="C640" t="n">
+        <v>13377</v>
+      </c>
+      <c r="D640" t="n">
+        <v>623192</v>
+      </c>
+      <c r="E640" t="n">
+        <v>28790.662</v>
+      </c>
+      <c r="F640" t="n">
+        <v>594401.338</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
